--- a/WBS (1).xlsx
+++ b/WBS (1).xlsx
@@ -26,9 +26,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="135">
-  <x:si>
-    <x:t>2022/12/07(수)</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="138">
+  <x:si>
+    <x:t>2022/12/09(금)김종환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2022/12/07(수)김종환
+2022/??/??(?)성한솔</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내가 만들려던건 완성함,
+한솔이가 다룬거랑 좀 달라서...</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -114,9 +122,6 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:t>실질적으론 100퍼 완료, 혹여나 10퍼비움</x:t>
-  </x:si>
-  <x:si>
     <x:t>1) 본인인증 한국모바일인증에서 제공해 주는 창을 사용해도 될지?</x:t>
   </x:si>
   <x:si>
@@ -126,26 +131,22 @@
     <x:t>구성진행비율</x:t>
   </x:si>
   <x:si>
+    <x:t>8) 카드심사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세부 기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>변경내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Remarks</x:t>
+  </x:si>
+  <x:si>
     <x:t>Project</x:t>
   </x:si>
   <x:si>
-    <x:t>1) 구축준비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>오답노트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Remarks</x:t>
-  </x:si>
-  <x:si>
-    <x:t>업무
-구성비</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SPI :</x:t>
-  </x:si>
-  <x:si>
-    <x:t>8) 카드심사</x:t>
+    <x:t>계획진척 :</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -225,31 +226,65 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>9) 추가개발</x:t>
+  </x:si>
+  <x:si>
+    <x:t>대체휴일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1) 구축준비</x:t>
+  </x:si>
+  <x:si>
     <x:t>breeze</x:t>
   </x:si>
   <x:si>
+    <x:t>점수 기록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>그래픽 작업</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6) 교육</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게임 부분</x:t>
+  </x:si>
+  <x:si>
+    <x:t>신규생성</x:t>
+  </x:si>
+  <x:si>
     <x:t>지방선거</x:t>
   </x:si>
   <x:si>
-    <x:t>게임 부분</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6) 교육</x:t>
+    <x:t>변경사유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>업무
+구성비</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ui 작업</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Date</x:t>
+  </x:si>
+  <x:si>
+    <x:t>*기준일자 :</x:t>
   </x:si>
   <x:si>
     <x:t>음향 작업</x:t>
   </x:si>
   <x:si>
-    <x:t>세부 기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>변경사유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ui 작업</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Date</x:t>
+    <x:t>2) 기본정보</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기믹 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPI :</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10) 테스트</x:t>
   </x:si>
   <x:si>
     <x:t>실제진척 :</x:t>
@@ -258,174 +293,79 @@
     <x:t>비고(산출물)</x:t>
   </x:si>
   <x:si>
-    <x:t>변경내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>신규생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>점수 기록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9) 추가개발</x:t>
-  </x:si>
-  <x:si>
-    <x:t>*기준일자 :</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2) 기본정보</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기믹 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계획진척 :</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10) 테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>대체휴일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>그래픽 작업</x:t>
+    <x:t>오답노트</x:t>
   </x:si>
   <x:si>
     <x:t>홈 화면</x:t>
   </x:si>
   <x:si>
+    <x:t>구조 설계</x:t>
+  </x:si>
+  <x:si>
     <x:t>부처님오신날</x:t>
   </x:si>
   <x:si>
-    <x:t>구조 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>(주의)</x:t>
-  </x:si>
-  <x:si>
     <x:t>Milestone</x:t>
   </x:si>
   <x:si>
+    <x:t>Project 2.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Project 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Project 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Project 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트 및 오류 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>수포자들을 위한 게임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Project 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11) 서비스 오픈</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Project 3</x:t>
+  </x:si>
+  <x:si>
     <x:t>WBS Code</x:t>
   </x:si>
   <x:si>
-    <x:t>Project 5</x:t>
+    <x:t>Project 1.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Project 2.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Project 9</x:t>
   </x:si>
   <x:si>
     <x:t>4) 연동정보 설정</x:t>
   </x:si>
   <x:si>
-    <x:t>Project 8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11) 서비스 오픈</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project 4</x:t>
+    <x:t>Project 11</x:t>
   </x:si>
   <x:si>
     <x:t>Project 6</x:t>
   </x:si>
   <x:si>
-    <x:t>수포자들을 위한 게임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트 및 오류 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project 1.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project 2.1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project 2.2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project 11</x:t>
+    <x:t>Project 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Project 0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Project 7</x:t>
   </x:si>
   <x:si>
     <x:t>성한솔, 김종환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project 0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Project 7</x:t>
-  </x:si>
-  <x:si>
-    <x:t>11/23 (주간회의 - 이슈)</x:t>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>Project 4.</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="10"/>
-            <x:color rgb="ff262626"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="10"/>
-            <x:color rgb="ff262626"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>1</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>Project 4.</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="10"/>
-            <x:color rgb="ff262626"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="10"/>
-            <x:color rgb="ff262626"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>2</x:t>
-    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -476,166 +416,228 @@
     </x:r>
   </x:si>
   <x:si>
+    <x:t>Project 10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>계획</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작성자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시작일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성한솔</x:t>
+  </x:si>
+  <x:si>
+    <x:t>공휴일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광복절</x:t>
+  </x:si>
+  <x:si>
+    <x:t>담당자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>승인일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>현충일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추석</x:t>
+  </x:si>
+  <x:si>
+    <x:t>설연휴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김종환</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>잔여일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성탄절</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실적</x:t>
+  </x:si>
+  <x:si>
     <x:t>오이택</x:t>
   </x:si>
   <x:si>
     <x:t>개천절</x:t>
   </x:si>
   <x:si>
-    <x:t>추석</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실적</x:t>
+    <x:t>한글날</x:t>
   </x:si>
   <x:si>
     <x:t>그래픽</x:t>
   </x:si>
   <x:si>
-    <x:t>한글날</x:t>
-  </x:si>
-  <x:si>
-    <x:t>담당자</x:t>
+    <x:t>신정</x:t>
   </x:si>
   <x:si>
     <x:t>No</x:t>
   </x:si>
   <x:si>
-    <x:t>신정</x:t>
-  </x:si>
-  <x:si>
     <x:t>NO</x:t>
   </x:si>
   <x:si>
-    <x:t>승인일</x:t>
-  </x:si>
-  <x:si>
     <x:t>버전</x:t>
   </x:si>
   <x:si>
-    <x:t>광복절</x:t>
+    <x:t>작업명</x:t>
   </x:si>
   <x:si>
     <x:t>승인자</x:t>
   </x:si>
   <x:si>
-    <x:t>작업명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작성자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시작일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>계획</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성한솔</x:t>
-  </x:si>
-  <x:si>
     <x:t>기능</x:t>
   </x:si>
   <x:si>
-    <x:t>설연휴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>공휴일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김종환</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Dep</x:t>
-  </x:si>
-  <x:si>
-    <x:t>잔여일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>현충일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>성탄절</x:t>
+    <x:t>7일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>차</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브랜드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추천</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>삼일절</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진척율</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메뉴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정성오</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>53일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>40일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>51일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>진행도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>21일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전원</x:t>
+  </x:si>
+  <x:si>
+    <x:t>테스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>25일</x:t>
   </x:si>
   <x:si>
     <x:t>변경일</x:t>
   </x:si>
   <x:si>
-    <x:t>차</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브랜드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>삼일절</x:t>
+    <x:t>전체</x:t>
   </x:si>
   <x:si>
     <x:t>종료일</x:t>
   </x:si>
   <x:si>
-    <x:t>전체</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진척율</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메뉴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전원</x:t>
-  </x:si>
-  <x:si>
-    <x:t>진행도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추천</x:t>
-  </x:si>
-  <x:si>
-    <x:t>테스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정성오</x:t>
-  </x:si>
-  <x:si>
-    <x:t>53일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10</x:t>
-  </x:si>
-  <x:si>
-    <x:t/>
-  </x:si>
-  <x:si>
-    <x:t>11일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>51일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>40일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>31일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>25일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>21일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2일</x:t>
+    <x:r>
+      <x:t>Project 4.</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="10"/>
+            <x:color rgb="ff262626"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="10"/>
+            <x:color rgb="ff262626"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>1</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Project 4.</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="10"/>
+            <x:color rgb="ff262626"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="10"/>
+            <x:color rgb="ff262626"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>2</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:t>3) 외부 연동 계정 생성</x:t>
   </x:si>
   <x:si>
     <x:t>Project 1.1.3</x:t>
@@ -644,10 +646,16 @@
     <x:t>7) Contents등록</x:t>
   </x:si>
   <x:si>
+    <x:t>2022/12/07(수)</x:t>
+  </x:si>
+  <x:si>
     <x:t>Project 1.1.2</x:t>
   </x:si>
   <x:si>
-    <x:t>3) 외부 연동 계정 생성</x:t>
+    <x:t>2022/11/28(월)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Project 2.2.1</x:t>
   </x:si>
   <x:si>
     <x:t>Project 1.1.1</x:t>
@@ -656,9 +664,6 @@
     <x:t>5) 서비스 구조 설정</x:t>
   </x:si>
   <x:si>
-    <x:t>Project 2.2.1</x:t>
-  </x:si>
-  <x:si>
     <x:t>2022/10/09(목)</x:t>
   </x:si>
   <x:si>
@@ -666,6 +671,90 @@
   </x:si>
   <x:si>
     <x:t>최종 보고서 작성 기간</x:t>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Project 2.2.</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="10"/>
+            <x:color rgb="ff262626"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="10"/>
+            <x:color rgb="ff262626"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>3</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Project 2.2.</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="10"/>
+            <x:color rgb="ff262626"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="10"/>
+            <x:color rgb="ff262626"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>4</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:t>Project 2.2.</x:t>
+    </x:r>
+    <x:r>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+          <x:rPr hs:extension="1">
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="10"/>
+            <x:color rgb="ff262626"/>
+            <hs:size val="100"/>
+            <hs:ratio val="100"/>
+            <hs:spacing val="0"/>
+            <hs:offset val="0"/>
+          </x:rPr>
+        </mc:Choice>
+        <mc:Fallback>
+          <x:rPr>
+            <x:rFont val="맑은 고딕"/>
+            <x:sz val="10"/>
+            <x:color rgb="ff262626"/>
+          </x:rPr>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <x:t>2</x:t>
+    </x:r>
   </x:si>
   <x:si>
     <x:r>
@@ -696,91 +785,13 @@
     </x:r>
   </x:si>
   <x:si>
-    <x:r>
-      <x:t>Project 2.2.</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="10"/>
-            <x:color rgb="ff262626"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="10"/>
-            <x:color rgb="ff262626"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>3</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>Project 2.2.</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="10"/>
-            <x:color rgb="ff262626"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="10"/>
-            <x:color rgb="ff262626"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>2</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:r>
-      <x:t>Project 2.2.</x:t>
-    </x:r>
-    <x:r>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-          <x:rPr hs:extension="1">
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="10"/>
-            <x:color rgb="ff262626"/>
-            <hs:size val="100"/>
-            <hs:ratio val="100"/>
-            <hs:spacing val="0"/>
-            <hs:offset val="0"/>
-          </x:rPr>
-        </mc:Choice>
-        <mc:Fallback>
-          <x:rPr>
-            <x:rFont val="맑은 고딕"/>
-            <x:sz val="10"/>
-            <x:color rgb="ff262626"/>
-          </x:rPr>
-        </mc:Fallback>
-      </mc:AlternateContent>
-      <x:t>4</x:t>
-    </x:r>
-  </x:si>
-  <x:si>
-    <x:t>2022/11/28(월)</x:t>
+    <x:t>실질적으론 100퍼 완료, 혹여나 10퍼비움</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11/23 (주간회의 - 이슈)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(양호)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2843,8 +2854,8 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="263">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+  <x:cellXfs count="265">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -5390,6 +5401,32 @@
       <mc:Fallback>
         <x:xf numFmtId="0" fontId="47" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="165" fontId="26" fillId="8" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="165" fontId="26" fillId="8" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+          <hs:parashape hs:leftMargin="1134" hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="10" borderId="19" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -5833,7 +5870,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5879,7 +5916,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5925,7 +5962,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17306926" y="7877174"/>
+          <a:off x="17506950" y="7943850"/>
           <a:ext cx="0" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5971,7 +6008,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17306926" y="7877174"/>
+          <a:off x="17506950" y="7943850"/>
           <a:ext cx="0" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6017,7 +6054,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6063,7 +6100,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6109,7 +6146,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6155,7 +6192,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6201,7 +6238,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6247,7 +6284,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17306926" y="7877174"/>
+          <a:off x="17506950" y="7943850"/>
           <a:ext cx="0" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6293,7 +6330,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17306926" y="7877174"/>
+          <a:off x="17506950" y="7943850"/>
           <a:ext cx="0" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6339,7 +6376,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6385,7 +6422,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6431,7 +6468,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6477,7 +6514,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6523,7 +6560,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6569,7 +6606,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6615,7 +6652,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6661,7 +6698,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6707,7 +6744,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6753,7 +6790,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6799,7 +6836,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6845,7 +6882,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6891,7 +6928,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6937,7 +6974,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17306926" y="7877174"/>
+          <a:off x="17506950" y="7943850"/>
           <a:ext cx="0" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6983,7 +7020,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17306926" y="7877174"/>
+          <a:off x="17506950" y="7943850"/>
           <a:ext cx="0" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7029,7 +7066,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7075,7 +7112,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7121,7 +7158,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7167,7 +7204,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7213,7 +7250,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7259,7 +7296,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7305,7 +7342,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7351,7 +7388,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7397,7 +7434,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7443,7 +7480,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17306926" y="7877174"/>
+          <a:off x="17506950" y="7943850"/>
           <a:ext cx="0" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7489,7 +7526,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17306926" y="7877174"/>
+          <a:off x="17506950" y="7943850"/>
           <a:ext cx="0" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7535,7 +7572,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7581,7 +7618,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7627,7 +7664,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7673,7 +7710,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7719,7 +7756,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7765,7 +7802,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17306926" y="7877174"/>
+          <a:off x="17506950" y="7943850"/>
           <a:ext cx="0" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7811,7 +7848,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17306926" y="7877174"/>
+          <a:off x="17506950" y="7943850"/>
           <a:ext cx="0" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7857,7 +7894,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7903,7 +7940,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7949,7 +7986,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7995,7 +8032,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8041,7 +8078,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8087,7 +8124,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8133,7 +8170,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8179,7 +8216,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8225,7 +8262,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8271,7 +8308,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8317,7 +8354,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8363,7 +8400,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8409,7 +8446,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8455,7 +8492,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17306926" y="7877174"/>
+          <a:off x="17506950" y="7943850"/>
           <a:ext cx="0" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8501,7 +8538,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17306926" y="7877174"/>
+          <a:off x="17506950" y="7943850"/>
           <a:ext cx="0" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8547,7 +8584,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8593,7 +8630,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8639,7 +8676,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8685,7 +8722,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8731,7 +8768,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8777,7 +8814,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8823,7 +8860,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3209925" y="7877174"/>
+          <a:off x="3209925" y="7943850"/>
           <a:ext cx="9525" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9724,7 +9761,7 @@
   <x:sheetData>
     <x:row r="2" spans="1:8" ht="26.25">
       <x:c r="A2" s="2" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="2"/>
       <x:c r="C2" s="2"/>
@@ -9736,28 +9773,28 @@
     </x:row>
     <x:row r="4" spans="1:8" ht="17.25" customHeight="1">
       <x:c r="A4" s="4" t="s">
-        <x:v>75</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B4" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>93</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D4" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E4" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="F4" s="4" t="s">
-        <x:v>81</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="G4" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="H4" s="4" t="s">
-        <x:v>79</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:8" ht="17.25" customHeight="1">
@@ -9771,11 +9808,11 @@
         <x:v>42536</x:v>
       </x:c>
       <x:c r="D5" s="8" t="s">
-        <x:v>26</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E5" s="8"/>
       <x:c r="F5" s="5" t="s">
-        <x:v>66</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="G5" s="5"/>
       <x:c r="H5" s="5"/>
@@ -10082,8 +10119,8 @@
   <x:dimension ref="B2:AI55"/>
   <x:sheetViews>
     <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:pane xSplit="9" ySplit="5" topLeftCell="L22" activePane="bottomRight" state="frozen"/>
-      <x:selection pane="bottomRight" activeCell="Q31" activeCellId="0" sqref="Q31:Q31"/>
+      <x:pane xSplit="9" ySplit="5" topLeftCell="N19" activePane="bottomRight" state="frozen"/>
+      <x:selection pane="bottomRight" activeCell="X32" activeCellId="0" sqref="X32:X32"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="10.5"/>
@@ -10102,8 +10139,8 @@
     <x:col min="13" max="13" width="13.140625" style="52" hidden="1" customWidth="1"/>
     <x:col min="14" max="14" width="13.140625" style="52" customWidth="1"/>
     <x:col min="15" max="15" width="14.140625" style="53" customWidth="1"/>
-    <x:col min="16" max="16" width="18.140625" style="52" customWidth="1"/>
-    <x:col min="17" max="17" width="17.42578125" style="52" customWidth="1"/>
+    <x:col min="16" max="16" width="19.71484375" style="52" customWidth="1"/>
+    <x:col min="17" max="17" width="18.85546875" style="52" customWidth="1"/>
     <x:col min="18" max="18" width="13.140625" style="53" customWidth="1"/>
     <x:col min="19" max="19" width="12.28515625" style="53" customWidth="1"/>
     <x:col min="20" max="20" width="10.42578125" style="50" customWidth="1"/>
@@ -10127,7 +10164,7 @@
   <x:sheetData>
     <x:row r="2" spans="2:27" s="27" customFormat="1" ht="40.5" customHeight="1">
       <x:c r="B2" s="160" t="s">
-        <x:v>1</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="C2" s="28"/>
       <x:c r="D2" s="29"/>
@@ -10138,35 +10175,35 @@
       <x:c r="M2" s="32"/>
       <x:c r="N2" s="32"/>
       <x:c r="O2" s="56" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="P2" s="55">
         <x:v>44896</x:v>
       </x:c>
       <x:c r="Q2" s="57" t="s">
-        <x:v>32</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="R2" s="206">
         <x:f>O6</x:f>
         <x:v>0.78672727272727272</x:v>
       </x:c>
       <x:c r="S2" s="56" t="s">
-        <x:v>23</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="T2" s="140">
         <x:f>R6</x:f>
-        <x:v>0.69269999999999998</x:v>
+        <x:v>0.74309999999999987</x:v>
       </x:c>
       <x:c r="U2" s="141" t="s">
-        <x:v>11</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="V2" s="142">
         <x:f>U6/T6</x:f>
-        <x:v>0.88048301363531312</x:v>
+        <x:v>0.94454587474000451</x:v>
       </x:c>
       <x:c r="W2" s="208" t="str">
         <x:f>IF(V2&lt;0.8,"(경고)",IF(V2&lt;0.9,"(주의)","(양호)"))</x:f>
-        <x:v>(주의)</x:v>
+        <x:v>(양호)</x:v>
       </x:c>
       <x:c r="X2" s="35"/>
       <x:c r="Z2" s="36"/>
@@ -10174,23 +10211,23 @@
     </x:row>
     <x:row r="3" spans="2:26" s="23" customFormat="1" ht="14.199999999999999">
       <x:c r="B3" s="243" t="s">
-        <x:v>73</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C3" s="246" t="s">
-        <x:v>41</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D3" s="247" t="s">
-        <x:v>89</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E3" s="250" t="s">
-        <x:v>80</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="F3" s="251"/>
       <x:c r="G3" s="251"/>
       <x:c r="H3" s="251"/>
       <x:c r="I3" s="252"/>
       <x:c r="J3" s="239" t="s">
-        <x:v>83</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="K3" s="229"/>
       <x:c r="L3" s="229"/>
@@ -10198,21 +10235,21 @@
       <x:c r="N3" s="229"/>
       <x:c r="O3" s="240"/>
       <x:c r="P3" s="259" t="s">
-        <x:v>103</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="Q3" s="251"/>
       <x:c r="R3" s="240"/>
       <x:c r="S3" s="225" t="s">
-        <x:v>10</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="T3" s="228" t="s">
-        <x:v>5</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="U3" s="229"/>
       <x:c r="V3" s="229"/>
       <x:c r="W3" s="230"/>
       <x:c r="X3" s="234" t="s">
-        <x:v>24</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="Z3" s="24"/>
     </x:row>
@@ -10252,44 +10289,44 @@
       <x:c r="H5" s="257"/>
       <x:c r="I5" s="258"/>
       <x:c r="J5" s="199" t="s">
-        <x:v>101</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="K5" s="199" t="s">
-        <x:v>82</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="L5" s="200" t="s">
-        <x:v>97</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="M5" s="199" t="s">
-        <x:v>72</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="N5" s="199" t="s">
-        <x:v>72</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="O5" s="201" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="P5" s="199" t="s">
-        <x:v>82</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="Q5" s="200" t="s">
-        <x:v>97</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="R5" s="201" t="s">
-        <x:v>99</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="S5" s="227"/>
       <x:c r="T5" s="202" t="s">
-        <x:v>83</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="U5" s="203" t="s">
-        <x:v>69</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="V5" s="204" t="s">
-        <x:v>90</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="W5" s="205" t="s">
-        <x:v>94</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="X5" s="236"/>
       <x:c r="Z5" s="26"/>
@@ -10299,14 +10336,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="C6" s="12" t="s">
-        <x:v>6</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D6" s="13">
         <x:f>IF(COUNTBLANK(E6:I6)&lt;5,IF(E6&lt;&gt;"",0,IF(F6&lt;&gt;"",1,IF(G6&lt;&gt;"",2,IF(H6&lt;&gt;"",3,IF(I6&lt;&gt;"",4))))),"")</x:f>
         <x:v>0</x:v>
       </x:c>
       <x:c r="E6" s="237" t="s">
-        <x:v>48</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F6" s="238"/>
       <x:c r="G6" s="238"/>
@@ -10325,10 +10362,10 @@
         <x:v>44909</x:v>
       </x:c>
       <x:c r="M6" s="69" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N6" s="218" t="s">
-        <x:v>106</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O6" s="143">
         <x:f>SUM(T19,T25,T33)</x:f>
@@ -10344,7 +10381,7 @@
       </x:c>
       <x:c r="R6" s="143">
         <x:f>SUM(U19,U25,U33)</x:f>
-        <x:v>0.69269999999999998</x:v>
+        <x:v>0.74309999999999987</x:v>
       </x:c>
       <x:c r="S6" s="145">
         <x:f>SUM(S19,S25,S33)</x:f>
@@ -10356,7 +10393,7 @@
       </x:c>
       <x:c r="U6" s="156">
         <x:f>R6*S6</x:f>
-        <x:v>0.69269999999999987</x:v>
+        <x:v>0.74309999999999976</x:v>
       </x:c>
       <x:c r="V6" s="157" t="str">
         <x:f>IF(L6-$P$2&lt;=0,0,CONCATENATE(NETWORKDAYS($P$2,L6,holiday!B4:B39)))</x:f>
@@ -10364,12 +10401,12 @@
       </x:c>
       <x:c r="W6" s="177">
         <x:f>IF(SUM(T6:U6)&gt;0,(U6-T6)/S6,0)</x:f>
-        <x:v>-0.094027272727272751</x:v>
+        <x:v>-0.043627272727272855</x:v>
       </x:c>
       <x:c r="X6" s="71"/>
       <x:c r="Z6" s="39"/>
       <x:c r="AA6" s="187" t="s">
-        <x:v>62</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="AB6" s="190"/>
     </x:row>
@@ -10378,7 +10415,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C7" s="66" t="s">
-        <x:v>60</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D7" s="63">
         <x:f>IF(COUNTBLANK(E7:I7)&lt;5,IF(E7&lt;&gt;"",0,IF(F7&lt;&gt;"",1,IF(G7&lt;&gt;"",2,IF(H7&lt;&gt;"",3,IF(I7&lt;&gt;"",4))))),"")</x:f>
@@ -10441,7 +10478,7 @@
       </x:c>
       <x:c r="AF7" s="42">
         <x:f t="shared" si="0"/>
-        <x:v>0.69269999999999998</x:v>
+        <x:v>0.74309999999999987</x:v>
       </x:c>
       <x:c r="AG7" s="33" t="str">
         <x:f t="shared" si="0"/>
@@ -10449,11 +10486,11 @@
       </x:c>
       <x:c r="AH7" s="43">
         <x:f t="shared" si="0"/>
-        <x:v>0.88048301363531312</x:v>
+        <x:v>0.94454587474000451</x:v>
       </x:c>
       <x:c r="AI7" s="34" t="str">
         <x:f t="shared" si="0"/>
-        <x:v>(주의)</x:v>
+        <x:v>(양호)</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:26" s="38" customFormat="1" ht="19.5" hidden="1" customHeight="1">
@@ -10461,7 +10498,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C8" s="20" t="s">
-        <x:v>52</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D8" s="18">
         <x:f>IF(COUNTBLANK(E8:I8)&lt;5,IF(E8&lt;&gt;"",0,IF(F8&lt;&gt;"",1,IF(G8&lt;&gt;"",2,IF(H8&lt;&gt;"",3,IF(I8&lt;&gt;"",4))))),"")</x:f>
@@ -10470,7 +10507,7 @@
       <x:c r="E8" s="19"/>
       <x:c r="F8" s="20"/>
       <x:c r="G8" s="21" t="s">
-        <x:v>7</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H8" s="22"/>
       <x:c r="I8" s="22"/>
@@ -10532,7 +10569,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C9" s="60" t="s">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D9" s="58">
         <x:f t="shared" ref="D9:D19" si="6">IF(COUNTBLANK(E9:I9)&lt;5,IF(E9&lt;&gt;"",0,IF(F9&lt;&gt;"",1,IF(G9&lt;&gt;"",2,IF(H9&lt;&gt;"",3,IF(I9&lt;&gt;"",4))))),"")</x:f>
@@ -10603,7 +10640,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C10" s="20" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D10" s="18">
         <x:f>IF(COUNTBLANK(E10:I10)&lt;5,IF(E10&lt;&gt;"",0,IF(F10&lt;&gt;"",1,IF(G10&lt;&gt;"",2,IF(H10&lt;&gt;"",3,IF(I10&lt;&gt;"",4))))),"")</x:f>
@@ -10612,7 +10649,7 @@
       <x:c r="E10" s="19"/>
       <x:c r="F10" s="20"/>
       <x:c r="G10" s="21" t="s">
-        <x:v>123</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="H10" s="22"/>
       <x:c r="I10" s="22"/>
@@ -10671,7 +10708,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C11" s="60" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D11" s="58">
         <x:f>IF(COUNTBLANK(E11:I11)&lt;5,IF(E11&lt;&gt;"",0,IF(F11&lt;&gt;"",1,IF(G11&lt;&gt;"",2,IF(H11&lt;&gt;"",3,IF(I11&lt;&gt;"",4))))),"")</x:f>
@@ -10680,7 +10717,7 @@
       <x:c r="E11" s="59"/>
       <x:c r="F11" s="60"/>
       <x:c r="G11" s="61" t="s">
-        <x:v>43</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="H11" s="62"/>
       <x:c r="I11" s="62"/>
@@ -10742,7 +10779,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C12" s="20" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D12" s="18">
         <x:f>IF(COUNTBLANK(E12:I12)&lt;5,IF(E12&lt;&gt;"",0,IF(F12&lt;&gt;"",1,IF(G12&lt;&gt;"",2,IF(H12&lt;&gt;"",3,IF(I12&lt;&gt;"",4))))),"")</x:f>
@@ -10751,7 +10788,7 @@
       <x:c r="E12" s="19"/>
       <x:c r="F12" s="20"/>
       <x:c r="G12" s="21" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="H12" s="22"/>
       <x:c r="I12" s="22"/>
@@ -10807,7 +10844,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C13" s="60" t="s">
-        <x:v>47</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D13" s="58">
         <x:f>IF(COUNTBLANK(E13:I13)&lt;5,IF(E13&lt;&gt;"",0,IF(F13&lt;&gt;"",1,IF(G13&lt;&gt;"",2,IF(H13&lt;&gt;"",3,IF(I13&lt;&gt;"",4))))),"")</x:f>
@@ -10816,7 +10853,7 @@
       <x:c r="E13" s="59"/>
       <x:c r="F13" s="60"/>
       <x:c r="G13" s="61" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H13" s="62"/>
       <x:c r="I13" s="62"/>
@@ -10878,7 +10915,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C14" s="20" t="s">
-        <x:v>61</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D14" s="18">
         <x:f>IF(COUNTBLANK(E14:I14)&lt;5,IF(E14&lt;&gt;"",0,IF(F14&lt;&gt;"",1,IF(G14&lt;&gt;"",2,IF(H14&lt;&gt;"",3,IF(I14&lt;&gt;"",4))))),"")</x:f>
@@ -10949,7 +10986,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C15" s="60" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="D15" s="58">
         <x:f t="shared" ref="D15:D16" si="7">IF(COUNTBLANK(E15:I15)&lt;5,IF(E15&lt;&gt;"",0,IF(F15&lt;&gt;"",1,IF(G15&lt;&gt;"",2,IF(H15&lt;&gt;"",3,IF(I15&lt;&gt;"",4))))),"")</x:f>
@@ -10958,7 +10995,7 @@
       <x:c r="E15" s="59"/>
       <x:c r="F15" s="60"/>
       <x:c r="G15" s="61" t="s">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H15" s="62"/>
       <x:c r="I15" s="62"/>
@@ -11020,7 +11057,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C16" s="20" t="s">
-        <x:v>55</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D16" s="58">
         <x:f t="shared" si="7"/>
@@ -11029,7 +11066,7 @@
       <x:c r="E16" s="59"/>
       <x:c r="F16" s="60"/>
       <x:c r="G16" s="61" t="s">
-        <x:v>28</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="H16" s="62"/>
       <x:c r="I16" s="62"/>
@@ -11091,7 +11128,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C17" s="60" t="s">
-        <x:v>58</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D17" s="18">
         <x:f>IF(COUNTBLANK(E17:I17)&lt;5,IF(E17&lt;&gt;"",0,IF(F17&lt;&gt;"",1,IF(G17&lt;&gt;"",2,IF(H17&lt;&gt;"",3,IF(I17&lt;&gt;"",4))))),"")</x:f>
@@ -11162,7 +11199,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C18" s="20" t="s">
-        <x:v>56</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="D18" s="58">
         <x:f>IF(COUNTBLANK(E18:I18)&lt;5,IF(E18&lt;&gt;"",0,IF(F18&lt;&gt;"",1,IF(G18&lt;&gt;"",2,IF(H18&lt;&gt;"",3,IF(I18&lt;&gt;"",4))))),"")</x:f>
@@ -11171,7 +11208,7 @@
       <x:c r="E18" s="59"/>
       <x:c r="F18" s="60"/>
       <x:c r="G18" s="61" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H18" s="62"/>
       <x:c r="I18" s="62"/>
@@ -11233,7 +11270,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C19" s="210" t="s">
-        <x:v>52</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D19" s="14">
         <x:f t="shared" si="6"/>
@@ -11241,7 +11278,7 @@
       </x:c>
       <x:c r="E19" s="15"/>
       <x:c r="F19" s="213" t="s">
-        <x:v>16</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="G19" s="16"/>
       <x:c r="H19" s="17"/>
@@ -11259,10 +11296,10 @@
         <x:v>44907</x:v>
       </x:c>
       <x:c r="M19" s="95" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N19" s="215" t="s">
-        <x:v>106</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O19" s="96">
         <x:f>SUM(T20)</x:f>
@@ -11304,7 +11341,7 @@
       <x:c r="Z19" s="45"/>
       <x:c r="AA19" s="189"/>
       <x:c r="AB19" s="46" t="s">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:27" s="49" customFormat="1" ht="19.5" customHeight="1" outlineLevel="2">
@@ -11312,7 +11349,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C20" s="113" t="s">
-        <x:v>50</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D20" s="114">
         <x:f t="shared" ref="D20:D21" si="9">IF(COUNTBLANK(E20:I20)&lt;5,IF(E20&lt;&gt;"",0,IF(F20&lt;&gt;"",1,IF(G20&lt;&gt;"",2,IF(H20&lt;&gt;"",3,IF(I20&lt;&gt;"",4))))),"")</x:f>
@@ -11338,10 +11375,10 @@
         <x:v>44907</x:v>
       </x:c>
       <x:c r="M20" s="119" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N20" s="216" t="s">
-        <x:v>106</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O20" s="120">
         <x:f>SUM(T21:T24)</x:f>
@@ -11388,7 +11425,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C21" s="105" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="D21" s="106">
         <x:f t="shared" si="9"/>
@@ -11412,10 +11449,10 @@
         <x:v>44892</x:v>
       </x:c>
       <x:c r="M21" s="111" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N21" s="217" t="s">
-        <x:v>106</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O21" s="112">
         <x:f>IF(COUNTBLANK(K21:L21)&gt;0,0,1/NETWORKDAYS(K21,L21)*(IF($P$2&lt;=K21,0,NETWORKDAYS(K21,IF($P$2&gt;L21,L21,$P$2)))))</x:f>
@@ -11459,7 +11496,7 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C22" s="105" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D22" s="106">
         <x:f>IF(COUNTBLANK(E22:I22)&lt;5,IF(E22&lt;&gt;"",0,IF(F22&lt;&gt;"",1,IF(G22&lt;&gt;"",2,IF(H22&lt;&gt;"",3,IF(I22&lt;&gt;"",4))))),"")</x:f>
@@ -11469,7 +11506,7 @@
       <x:c r="F22" s="108"/>
       <x:c r="G22" s="108"/>
       <x:c r="H22" s="212" t="s">
-        <x:v>21</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="I22" s="105"/>
       <x:c r="J22" s="109" t="str">
@@ -11483,10 +11520,10 @@
         <x:v>44892</x:v>
       </x:c>
       <x:c r="M22" s="111" t="s">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="N22" s="217" t="s">
-        <x:v>106</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O22" s="112">
         <x:f>IF(COUNTBLANK(K22:L22)&gt;0,0,1/NETWORKDAYS(K22,L22)*(IF($P$2&lt;=K22,0,NETWORKDAYS(K22,IF($P$2&gt;L22,L22,$P$2)))))</x:f>
@@ -11540,7 +11577,7 @@
       <x:c r="F23" s="108"/>
       <x:c r="G23" s="108"/>
       <x:c r="H23" s="211" t="s">
-        <x:v>35</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="I23" s="105"/>
       <x:c r="J23" s="109" t="str">
@@ -11554,10 +11591,10 @@
         <x:v>44892</x:v>
       </x:c>
       <x:c r="M23" s="111" t="s">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="N23" s="217" t="s">
-        <x:v>106</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O23" s="112">
         <x:f>IF(COUNTBLANK(K23:L23)&gt;0,0,1/NETWORKDAYS(K23,L23)*(IF($P$2&lt;=K23,0,NETWORKDAYS(K23,IF($P$2&gt;L23,L23,$P$2)))))</x:f>
@@ -11601,7 +11638,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="C24" s="105" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="D24" s="106">
         <x:f>IF(COUNTBLANK(E24:I24)&lt;5,IF(E24&lt;&gt;"",0,IF(F24&lt;&gt;"",1,IF(G24&lt;&gt;"",2,IF(H24&lt;&gt;"",3,IF(I24&lt;&gt;"",4))))),"")</x:f>
@@ -11611,7 +11648,7 @@
       <x:c r="F24" s="108"/>
       <x:c r="G24" s="108"/>
       <x:c r="H24" s="211" t="s">
-        <x:v>18</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="I24" s="105"/>
       <x:c r="J24" s="109" t="str">
@@ -11625,10 +11662,10 @@
         <x:v>44907</x:v>
       </x:c>
       <x:c r="M24" s="111" t="s">
-        <x:v>95</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="N24" s="217" t="s">
-        <x:v>106</x:v>
+        <x:v>100</x:v>
       </x:c>
       <x:c r="O24" s="112">
         <x:f>IF(COUNTBLANK(K24:L24)&gt;0,0,1/NETWORKDAYS(K24,L24)*(IF($P$2&lt;=K24,0,NETWORKDAYS(K24,IF($P$2&gt;L24,L24,$P$2)))))</x:f>
@@ -11670,7 +11707,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C25" s="103" t="s">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D25" s="14">
         <x:f>IF(COUNTBLANK(E25:I25)&lt;5,IF(E25&lt;&gt;"",0,IF(F25&lt;&gt;"",1,IF(G25&lt;&gt;"",2,IF(H25&lt;&gt;"",3,IF(I25&lt;&gt;"",4))))),"")</x:f>
@@ -11678,7 +11715,7 @@
       </x:c>
       <x:c r="E25" s="15"/>
       <x:c r="F25" s="213" t="s">
-        <x:v>85</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="G25" s="16"/>
       <x:c r="H25" s="17"/>
@@ -11696,7 +11733,7 @@
         <x:v>44907</x:v>
       </x:c>
       <x:c r="M25" s="95" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N25" s="95" t="s">
         <x:v>13</x:v>
@@ -11715,7 +11752,7 @@
       </x:c>
       <x:c r="R25" s="96">
         <x:f>SUM(U26:U27)</x:f>
-        <x:v>0.75450000000000006</x:v>
+        <x:v>0.83849999999999991</x:v>
       </x:c>
       <x:c r="S25" s="97">
         <x:v>0.59999999999999998</x:v>
@@ -11726,7 +11763,7 @@
       </x:c>
       <x:c r="U25" s="99">
         <x:f t="shared" ref="U25:U33" si="11">R25*S25</x:f>
-        <x:v>0.45269999999999999</x:v>
+        <x:v>0.50309999999999988</x:v>
       </x:c>
       <x:c r="V25" s="159">
         <x:f>IF(COUNTBLANK(K25:L25)&gt;0,0,IF(L25-$P$2&lt;=0,0,NETWORKDAYS($P$2,L25,holiday!B4:B39)))</x:f>
@@ -11734,7 +11771,7 @@
       </x:c>
       <x:c r="W25" s="184">
         <x:f>IF(SUM(T25:U25)&gt;0,(U25-T25)/S25,0)</x:f>
-        <x:v>-0.12034848484848482</x:v>
+        <x:v>-0.036348484848485008</x:v>
       </x:c>
       <x:c r="X25" s="100"/>
       <x:c r="Y25" s="47"/>
@@ -11746,7 +11783,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="C26" s="113" t="s">
-        <x:v>51</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D26" s="114">
         <x:f>IF(COUNTBLANK(E26:I26)&lt;5,IF(E26&lt;&gt;"",0,IF(F26&lt;&gt;"",1,IF(G26&lt;&gt;"",2,IF(H26&lt;&gt;"",3,IF(I26&lt;&gt;"",4))))),"")</x:f>
@@ -11755,7 +11792,7 @@
       <x:c r="E26" s="115"/>
       <x:c r="F26" s="116"/>
       <x:c r="G26" s="214" t="s">
-        <x:v>70</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="H26" s="113"/>
       <x:c r="I26" s="113"/>
@@ -11770,10 +11807,10 @@
         <x:v>44879</x:v>
       </x:c>
       <x:c r="M26" s="119" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N26" s="216" t="s">
-        <x:v>84</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="O26" s="120">
         <x:f>IF(COUNTBLANK(K26:L26)&gt;0,0,1/NETWORKDAYS(K26,L26)*(IF($P$2&lt;=K26,0,NETWORKDAYS(K26,IF($P$2&gt;L26,L26,$P$2)))))</x:f>
@@ -11815,7 +11852,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C27" s="113" t="s">
-        <x:v>54</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="D27" s="114">
         <x:f t="shared" ref="D27:D34" si="13">IF(COUNTBLANK(E27:I27)&lt;5,IF(E27&lt;&gt;"",0,IF(F27&lt;&gt;"",1,IF(G27&lt;&gt;"",2,IF(H27&lt;&gt;"",3,IF(I27&lt;&gt;"",4))))),"")</x:f>
@@ -11824,7 +11861,7 @@
       <x:c r="E27" s="115"/>
       <x:c r="F27" s="116"/>
       <x:c r="G27" s="214" t="s">
-        <x:v>19</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="H27" s="113"/>
       <x:c r="I27" s="113"/>
@@ -11841,10 +11878,10 @@
         <x:v>44907</x:v>
       </x:c>
       <x:c r="M27" s="119" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N27" s="216" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="O27" s="120">
         <x:f>SUM(T28:T32)</x:f>
@@ -11860,7 +11897,7 @@
       </x:c>
       <x:c r="R27" s="120">
         <x:f>SUM(U28:U32)</x:f>
-        <x:v>0.7350000000000001</x:v>
+        <x:v>0.85499999999999998</x:v>
       </x:c>
       <x:c r="S27" s="120">
         <x:v>0.69999999999999996</x:v>
@@ -11871,7 +11908,7 @@
       </x:c>
       <x:c r="U27" s="122">
         <x:f t="shared" si="11"/>
-        <x:v>0.51450000000000007</x:v>
+        <x:v>0.59849999999999992</x:v>
       </x:c>
       <x:c r="V27" s="158">
         <x:f>IF(COUNTBLANK(K27:L27)&gt;0,0,IF(L27-$P$2&lt;=0,0,NETWORKDAYS($P$2,L27,holiday!B4:B39)))</x:f>
@@ -11879,7 +11916,7 @@
       </x:c>
       <x:c r="W27" s="182">
         <x:f t="shared" si="12"/>
-        <x:v>-0.086212121212121101</x:v>
+        <x:v>0.0337878787878787</x:v>
       </x:c>
       <x:c r="X27" s="124"/>
       <x:c r="Y27" s="47"/>
@@ -11891,7 +11928,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="C28" s="105" t="s">
-        <x:v>126</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="D28" s="106">
         <x:f t="shared" si="13"/>
@@ -11901,7 +11938,7 @@
       <x:c r="F28" s="108"/>
       <x:c r="G28" s="108"/>
       <x:c r="H28" s="211" t="s">
-        <x:v>36</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="I28" s="105"/>
       <x:c r="J28" s="109" t="str">
@@ -11915,10 +11952,10 @@
         <x:v>44871</x:v>
       </x:c>
       <x:c r="M28" s="111" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N28" s="217" t="s">
-        <x:v>88</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O28" s="112">
         <x:f>IF(COUNTBLANK(K28:L28)&gt;0,0,1/NETWORKDAYS(K28,L28)*(IF($P$2&lt;=K28,0,NETWORKDAYS(K28,IF($P$2&gt;L28,L28,$P$2)))))</x:f>
@@ -11960,7 +11997,7 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C29" s="105" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D29" s="106">
         <x:f t="shared" si="13"/>
@@ -11970,7 +12007,7 @@
       <x:c r="F29" s="108"/>
       <x:c r="G29" s="108"/>
       <x:c r="H29" s="211" t="s">
-        <x:v>100</x:v>
+        <x:v>99</x:v>
       </x:c>
       <x:c r="I29" s="105"/>
       <x:c r="J29" s="109" t="str">
@@ -11984,17 +12021,17 @@
         <x:v>44878</x:v>
       </x:c>
       <x:c r="M29" s="111" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N29" s="222" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="O29" s="112">
         <x:f>IF(COUNTBLANK(K29:L29)&gt;Q380,0,1/NETWORKDAYS(K29,L29)*(IF($P$2&lt;=K29,0,NETWORKDAYS(K29,IF($P$2&gt;L29,L29,$P$2)))))</x:f>
         <x:v>1</x:v>
       </x:c>
       <x:c r="P29" s="101" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="Q29" s="224">
         <x:v>44893</x:v>
@@ -12041,7 +12078,7 @@
       <x:c r="F30" s="108"/>
       <x:c r="G30" s="108"/>
       <x:c r="H30" s="211" t="s">
-        <x:v>27</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I30" s="105"/>
       <x:c r="J30" s="109" t="str">
@@ -12055,20 +12092,20 @@
         <x:v>44892</x:v>
       </x:c>
       <x:c r="M30" s="111" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N30" s="217" t="s">
-        <x:v>88</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="O30" s="112">
         <x:f t="shared" ref="O30:O32" si="14">IF(COUNTBLANK(K30:L30)&gt;0,0,1/NETWORKDAYS(K30,L30)*(IF($P$2&lt;=K30,0,NETWORKDAYS(K30,IF($P$2&gt;L30,L30,$P$2)))))</x:f>
         <x:v>1</x:v>
       </x:c>
       <x:c r="P30" s="101" t="s">
-        <x:v>134</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="Q30" s="101" t="s">
-        <x:v>0</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="R30" s="102">
         <x:v>0.90000000000000002</x:v>
@@ -12093,18 +12130,18 @@
         <x:v>-0.099999999999999908</x:v>
       </x:c>
       <x:c r="X30" s="207" t="s">
-        <x:v>2</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="Y30" s="47"/>
       <x:c r="Z30" s="48"/>
       <x:c r="AA30" s="51"/>
     </x:row>
-    <x:row r="31" spans="2:27" s="49" customFormat="1" ht="19.5" customHeight="1" outlineLevel="3">
+    <x:row r="31" spans="2:27" s="49" customFormat="1" ht="24.75" customHeight="1" outlineLevel="3">
       <x:c r="B31" s="104">
         <x:v>13</x:v>
       </x:c>
       <x:c r="C31" s="105" t="s">
-        <x:v>133</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="D31" s="106">
         <x:f t="shared" si="13"/>
@@ -12114,7 +12151,7 @@
       <x:c r="F31" s="108"/>
       <x:c r="G31" s="108"/>
       <x:c r="H31" s="211" t="s">
-        <x:v>8</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I31" s="105"/>
       <x:c r="J31" s="109" t="str">
@@ -12128,21 +12165,23 @@
         <x:v>44907</x:v>
       </x:c>
       <x:c r="M31" s="111" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N31" s="222" t="s">
-        <x:v>65</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="O31" s="112">
         <x:f t="shared" si="14"/>
         <x:v>0.36363636363636365</x:v>
       </x:c>
-      <x:c r="P31" s="101" t="s">
+      <x:c r="P31" s="263" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q31" s="101" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="Q31" s="101"/>
       <x:c r="R31" s="102">
-        <x:v>0</x:v>
+        <x:v>0.80000000000000004</x:v>
       </x:c>
       <x:c r="S31" s="112">
         <x:v>0.14999999999999999</x:v>
@@ -12153,7 +12192,7 @@
       </x:c>
       <x:c r="U31" s="127">
         <x:f t="shared" si="11"/>
-        <x:v>0</x:v>
+        <x:v>0.12</x:v>
       </x:c>
       <x:c r="V31" s="158">
         <x:f>IF(COUNTBLANK(K31:L31)&gt;0,0,IF(L31-$P$2&lt;=0,0,NETWORKDAYS($P$2,L31,holiday!B4:B39)))</x:f>
@@ -12161,9 +12200,11 @@
       </x:c>
       <x:c r="W31" s="183">
         <x:f t="shared" si="12"/>
-        <x:v>-0.36363636363636365</x:v>
-      </x:c>
-      <x:c r="X31" s="207"/>
+        <x:v>0.4363636363636364</x:v>
+      </x:c>
+      <x:c r="X31" s="264" t="s">
+        <x:v>2</x:v>
+      </x:c>
       <x:c r="Y31" s="47"/>
       <x:c r="Z31" s="48"/>
       <x:c r="AA31" s="51"/>
@@ -12173,7 +12214,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="C32" s="105" t="s">
-        <x:v>130</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="D32" s="106">
         <x:f t="shared" si="13"/>
@@ -12183,7 +12224,7 @@
       <x:c r="F32" s="108"/>
       <x:c r="G32" s="108"/>
       <x:c r="H32" s="211" t="s">
-        <x:v>104</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="I32" s="105"/>
       <x:c r="J32" s="109" t="str">
@@ -12197,10 +12238,10 @@
         <x:v>44907</x:v>
       </x:c>
       <x:c r="M32" s="111" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N32" s="217" t="s">
-        <x:v>84</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="O32" s="112">
         <x:f t="shared" si="14"/>
@@ -12240,7 +12281,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C33" s="161" t="s">
-        <x:v>46</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D33" s="162">
         <x:f t="shared" si="13"/>
@@ -12248,7 +12289,7 @@
       </x:c>
       <x:c r="E33" s="163"/>
       <x:c r="F33" s="164" t="s">
-        <x:v>105</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="G33" s="164"/>
       <x:c r="H33" s="165"/>
@@ -12266,10 +12307,10 @@
         <x:v>44909</x:v>
       </x:c>
       <x:c r="M33" s="167" t="s">
-        <x:v>14</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="N33" s="220" t="s">
-        <x:v>102</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="O33" s="168">
         <x:f>SUM(T34:T35)</x:f>
@@ -12316,7 +12357,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C34" s="146" t="s">
-        <x:v>63</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="D34" s="130">
         <x:f t="shared" si="13"/>
@@ -12325,7 +12366,7 @@
       <x:c r="E34" s="131"/>
       <x:c r="F34" s="132"/>
       <x:c r="G34" s="219" t="s">
-        <x:v>49</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="H34" s="129"/>
       <x:c r="I34" s="129"/>
@@ -12340,10 +12381,10 @@
         <x:v>44909</x:v>
       </x:c>
       <x:c r="M34" s="135" t="s">
-        <x:v>98</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N34" s="221" t="s">
-        <x:v>102</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="O34" s="138">
         <x:f>IF(COUNTBLANK(K34:L34)&gt;0,0,1/NETWORKDAYS(K34,L34)*(IF($P$2&lt;=K34,0,NETWORKDAYS(K34,IF($P$2&gt;L34,L34,$P$2)))))</x:f>
@@ -12383,7 +12424,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C35" s="146" t="s">
-        <x:v>64</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="D35" s="130">
         <x:f>IF(COUNTBLANK(E35:I35)&lt;5,IF(E35&lt;&gt;"",0,IF(F35&lt;&gt;"",1,IF(G35&lt;&gt;"",2,IF(H35&lt;&gt;"",3,IF(I35&lt;&gt;"",4))))),"")</x:f>
@@ -12392,7 +12433,7 @@
       <x:c r="E35" s="131"/>
       <x:c r="F35" s="132"/>
       <x:c r="G35" s="219" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="H35" s="129"/>
       <x:c r="I35" s="129"/>
@@ -12407,10 +12448,10 @@
         <x:v>44909</x:v>
       </x:c>
       <x:c r="M35" s="135" t="s">
-        <x:v>98</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="N35" s="221" t="s">
-        <x:v>102</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="O35" s="138">
         <x:f>IF(COUNTBLANK(K35:L35)&gt;0,0,1/NETWORKDAYS(K35,L35)*(IF($P$2&lt;=K35,0,NETWORKDAYS(K35,IF($P$2&gt;L35,L35,$P$2)))))</x:f>
@@ -12863,7 +12904,7 @@
       </x:extLst>
     </x:cfRule>
   </x:conditionalFormatting>
-  <x:pageMargins left="0.7086111307144165" right="0.7086111307144165" top="0.74777776002883911" bottom="0.74777776002883911" header="0.31486111879348755" footer="0.31486111879348755"/>
+  <x:pageMargins left="0.7086111307144165" right="0.7086111307144165" top="0.74763888120651245" bottom="0.74763888120651245" header="0.31486111879348755" footer="0.31486111879348755"/>
   <x:pageSetup paperSize="8" scale="68" firstPageNumber="1" fitToWidth="1" fitToHeight="0" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <x:drawing r:id="rId1"/>
   <x:extLst>
@@ -12917,16 +12958,16 @@
   <x:sheetData>
     <x:row r="2" spans="2:3" ht="17.25">
       <x:c r="B2" s="262" t="s">
-        <x:v>87</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C2" s="262"/>
     </x:row>
     <x:row r="3" spans="2:3">
       <x:c r="B3" s="194" t="s">
-        <x:v>22</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C3" s="191" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="2:3">
@@ -12934,7 +12975,7 @@
         <x:v>43101</x:v>
       </x:c>
       <x:c r="C4" s="196" t="s">
-        <x:v>74</x:v>
+        <x:v>83</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:3">
@@ -12942,7 +12983,7 @@
         <x:v>43146</x:v>
       </x:c>
       <x:c r="C5" s="198" t="s">
-        <x:v>86</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:3">
@@ -12950,7 +12991,7 @@
         <x:v>43147</x:v>
       </x:c>
       <x:c r="C6" s="198" t="s">
-        <x:v>86</x:v>
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:3">
@@ -12958,7 +12999,7 @@
         <x:v>43160</x:v>
       </x:c>
       <x:c r="C7" s="198" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:3">
@@ -12966,7 +13007,7 @@
         <x:v>43227</x:v>
       </x:c>
       <x:c r="C8" s="198" t="s">
-        <x:v>34</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:3">
@@ -12974,7 +13015,7 @@
         <x:v>43242</x:v>
       </x:c>
       <x:c r="C9" s="198" t="s">
-        <x:v>37</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:3">
@@ -12982,7 +13023,7 @@
         <x:v>43257</x:v>
       </x:c>
       <x:c r="C10" s="198" t="s">
-        <x:v>91</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:3">
@@ -12990,7 +13031,7 @@
         <x:v>43264</x:v>
       </x:c>
       <x:c r="C11" s="198" t="s">
-        <x:v>15</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:3">
@@ -12998,7 +13039,7 @@
         <x:v>43327</x:v>
       </x:c>
       <x:c r="C12" s="198" t="s">
-        <x:v>78</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:3">
@@ -13006,7 +13047,7 @@
         <x:v>43367</x:v>
       </x:c>
       <x:c r="C13" s="198" t="s">
-        <x:v>68</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="2:3">
@@ -13014,7 +13055,7 @@
         <x:v>43368</x:v>
       </x:c>
       <x:c r="C14" s="198" t="s">
-        <x:v>68</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:3">
@@ -13022,7 +13063,7 @@
         <x:v>43369</x:v>
       </x:c>
       <x:c r="C15" s="198" t="s">
-        <x:v>34</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:3">
@@ -13030,7 +13071,7 @@
         <x:v>43376</x:v>
       </x:c>
       <x:c r="C16" s="198" t="s">
-        <x:v>67</x:v>
+        <x:v>80</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:3">
@@ -13038,7 +13079,7 @@
         <x:v>43382</x:v>
       </x:c>
       <x:c r="C17" s="198" t="s">
-        <x:v>71</x:v>
+        <x:v>81</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:3">
@@ -13046,7 +13087,7 @@
         <x:v>43459</x:v>
       </x:c>
       <x:c r="C18" s="198" t="s">
-        <x:v>92</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:3">
@@ -13137,7 +13178,7 @@
   <x:mergeCells count="1">
     <x:mergeCell ref="B2:C2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </x:worksheet>
 </file>